--- a/xlsx/country_comparison/poverty_field_contains_positive.xlsx
+++ b/xlsx/country_comparison/poverty_field_contains_positive.xlsx
@@ -389,7 +389,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.336708283227619</v>
+        <v>0.336708283677886</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.152345644575593</v>
+        <v>0.152345644809366</v>
       </c>
     </row>
     <row r="4">
@@ -405,7 +405,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.114340650502093</v>
+        <v>0.114340650426645</v>
       </c>
     </row>
     <row r="5">
@@ -413,7 +413,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1114637995768</v>
+        <v>0.111463799504688</v>
       </c>
     </row>
     <row r="6">
@@ -421,7 +421,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0819644128352552</v>
+        <v>0.081964412778512</v>
       </c>
     </row>
     <row r="7">
@@ -429,7 +429,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0648438240313622</v>
+        <v>0.0648438239878797</v>
       </c>
     </row>
     <row r="8">
@@ -437,7 +437,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0480571308818631</v>
+        <v>0.0480571308502211</v>
       </c>
     </row>
     <row r="9">
@@ -445,7 +445,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0410851651564208</v>
+        <v>0.0410851651303798</v>
       </c>
     </row>
     <row r="10">
@@ -453,7 +453,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0390522132027733</v>
+        <v>0.039052213177189</v>
       </c>
     </row>
   </sheetData>
